--- a/zRW/VariablesRapport.xlsx
+++ b/zRW/VariablesRapport.xlsx
@@ -450,10 +450,10 @@
 FU        186884.372519</t>
   </si>
   <si>
-    <t>&lt;Produits.FU object at 0x000001284A914188&gt;</t>
-  </si>
-  <si>
-    <t>&lt;method-wrapper '__delattr__' of FU object at 0x000001284A3B3488&gt;</t>
+    <t>&lt;Produits.FU object at 0x000001B0F62A2988&gt;</t>
+  </si>
+  <si>
+    <t>&lt;method-wrapper '__delattr__' of FU object at 0x000001B0EB103048&gt;</t>
   </si>
   <si>
     <t>{'tout':       Unnamed: 0  PMBBILAN  PMBMOD  ...  POLPRCPL7  POLPRCPLB  tauxZill
@@ -864,37 +864,37 @@
     <t>['tout', 'p', 'h0', 'h1', 'runs', 'shape', 'SinistralityNew', 'LapseNew', 'CostNew', 'RateNew', 'nbrPolIf', 'nbrPolIfSM', 'nbrMaturities', 'nbrDeath', 'nbrSurrender', '__module__', 'mods', 'complPremium', '__init__', 'update', 'premiumCompl', 'purePremium', 'risqueEnCour', 'adjustedReserve', 'deathClaim', 'fraisVisiteClaim', 'claimPrincipal', 'claimCompl', '__doc__', 'ageNan', 'lapseTiming', 'age', 'ageInit', 'ageFinal', 'agePrimes', 'qx', 'qxExp', 'qxExpMens', 'qxyExpMens', 'actu', 'interp', 'loopNoSaving', 'timeBeforeNextPay', 'indexation', 'txInt', 'premInc', 'surrender', 'partialSurrender', 'maturity', 'reserveExpense', 'unitExpense', 'totalPremium', 'totalClaim', 'totalCommissions', 'totalExpense', 'BEL', 'PGG', 'mod', 'mask', 'modHead', 'ids', 'groupe', 'one', 'zero', 'vide', 'templateAllrun', 'oneAllrun', 'templateAllYear', 'hypoSet', 'fraisGestion', 'fraisGestionPlacement', 'templateSinistrality', 'ipt', 'dcAccident', 'exo', 'itt', 'hospi', 'dc', 'fraisVisite', 'rate', 'pbRate', 'lapse', 'reduction', 'commissions', 'inflation', 'durationIf', 'polTermM', 'frac', 'isLapse', 'isPremPay', 'projectionYear', '__dict__', '__weakref__', '__repr__', '__hash__', '__str__', '__getattribute__', '__setattr__', '__delattr__', '__lt__', '__le__', '__eq__', '__ne__', '__gt__', '__ge__', '__new__', '__reduce_ex__', '__reduce__', '__subclasshook__', '__init_subclass__', '__format__', '__sizeof__', '__dir__', '__class__']</t>
   </si>
   <si>
-    <t>&lt;method-wrapper '__eq__' of FU object at 0x000001284A3B3488&gt;</t>
-  </si>
-  <si>
-    <t>&lt;built-in method __format__ of FU object at 0x000001284A3B3488&gt;</t>
-  </si>
-  <si>
-    <t>&lt;method-wrapper '__ge__' of FU object at 0x000001284A3B3488&gt;</t>
-  </si>
-  <si>
-    <t>&lt;method-wrapper '__getattribute__' of FU object at 0x000001284A3B3488&gt;</t>
-  </si>
-  <si>
-    <t>&lt;method-wrapper '__gt__' of FU object at 0x000001284A3B3488&gt;</t>
-  </si>
-  <si>
-    <t>&lt;method-wrapper '__le__' of FU object at 0x000001284A3B3488&gt;</t>
-  </si>
-  <si>
-    <t>&lt;method-wrapper '__lt__' of FU object at 0x000001284A3B3488&gt;</t>
+    <t>&lt;method-wrapper '__eq__' of FU object at 0x000001B0EB103048&gt;</t>
+  </si>
+  <si>
+    <t>&lt;built-in method __format__ of FU object at 0x000001B0EB103048&gt;</t>
+  </si>
+  <si>
+    <t>&lt;method-wrapper '__ge__' of FU object at 0x000001B0EB103048&gt;</t>
+  </si>
+  <si>
+    <t>&lt;method-wrapper '__getattribute__' of FU object at 0x000001B0EB103048&gt;</t>
+  </si>
+  <si>
+    <t>&lt;method-wrapper '__gt__' of FU object at 0x000001B0EB103048&gt;</t>
+  </si>
+  <si>
+    <t>&lt;method-wrapper '__le__' of FU object at 0x000001B0EB103048&gt;</t>
+  </si>
+  <si>
+    <t>&lt;method-wrapper '__lt__' of FU object at 0x000001B0EB103048&gt;</t>
   </si>
   <si>
     <t>Produits</t>
   </si>
   <si>
-    <t>&lt;method-wrapper '__ne__' of FU object at 0x000001284A3B3488&gt;</t>
-  </si>
-  <si>
-    <t>&lt;built-in method __new__ of type object at 0x00007FF9F1727B30&gt;</t>
-  </si>
-  <si>
-    <t>(&lt;function _reconstructor at 0x0000012842F6F5E8&gt;, (&lt;class 'Produits.FU'&gt;, &lt;class 'object'&gt;, None), {'tout':       Unnamed: 0  PMBBILAN  PMBMOD  ...  POLPRCPL7  POLPRCPLB  tauxZill
+    <t>&lt;method-wrapper '__ne__' of FU object at 0x000001B0EB103048&gt;</t>
+  </si>
+  <si>
+    <t>&lt;built-in method __new__ of type object at 0x00007FFC8FAC7B30&gt;</t>
+  </si>
+  <si>
+    <t>(&lt;function _reconstructor at 0x000001B0ED14C678&gt;, (&lt;class 'Produits.FU'&gt;, &lt;class 'object'&gt;, None), {'tout':       Unnamed: 0  PMBBILAN  PMBMOD  ...  POLPRCPL7  POLPRCPLB  tauxZill
 0              0    2018.0     2.0  ...        NaN        NaN      0.08
 1              1    2018.0     2.0  ...        NaN        NaN      0.08
 2              2    2018.0     2.0  ...        NaN        NaN      0.08
@@ -1299,19 +1299,19 @@
          0.        ]]])})</t>
   </si>
   <si>
-    <t>&lt;built-in method __reduce_ex__ of FU object at 0x000001284A3B3488&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Produits.FU object at 0x000001284A3B3488&gt;</t>
-  </si>
-  <si>
-    <t>&lt;method-wrapper '__setattr__' of FU object at 0x000001284A3B3488&gt;</t>
+    <t>&lt;built-in method __reduce_ex__ of FU object at 0x000001B0EB103048&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Produits.FU object at 0x000001B0EB103048&gt;</t>
+  </si>
+  <si>
+    <t>&lt;method-wrapper '__setattr__' of FU object at 0x000001B0EB103048&gt;</t>
   </si>
   <si>
     <t>NotImplemented</t>
   </si>
   <si>
-    <t>&lt;bound method Portfolio.actu of &lt;Produits.FU object at 0x000001284A3B3488&gt;&gt;</t>
+    <t>&lt;bound method Portfolio.actu of &lt;Produits.FU object at 0x000001B0EB103048&gt;&gt;</t>
   </si>
   <si>
     <t>[[[  0.           0.           0.           0.           0.
@@ -2115,7 +2115,7 @@
   [0.4615 0.4615 0.4615 0.4615 0.4915 0.4996]]]</t>
   </si>
   <si>
-    <t>&lt;bound method Hypo.groupe of &lt;Produits.FU object at 0x000001284A3B3488&gt;&gt;</t>
+    <t>&lt;bound method Hypo.groupe of &lt;Produits.FU object at 0x000001B0EB103048&gt;&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">    Unnamed: 0            Unnamed: 1  ... Unnamed: 37 Unnamed: 38
@@ -2178,10 +2178,10 @@
   [0.25   0.25   0.25   0.25   0.2663 0.2793]]]</t>
   </si>
   <si>
-    <t>&lt;bound method Hypo.hypoSet of &lt;Produits.FU object at 0x000001284A3B3488&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;bound method Hypo.ids of &lt;Produits.FU object at 0x000001284A3B3488&gt;&gt;</t>
+    <t>&lt;bound method Hypo.hypoSet of &lt;Produits.FU object at 0x000001B0EB103048&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bound method Hypo.ids of &lt;Produits.FU object at 0x000001B0EB103048&gt;&gt;</t>
   </si>
   <si>
     <t>[[[1. 1. 1. 1. 1. 1.]
@@ -2274,7 +2274,7 @@
   [1.78923476 1.78923476 1.78923476 1.78923476 1.78923476 1.78923476]]]</t>
   </si>
   <si>
-    <t>&lt;bound method Portfolio.interp of &lt;Produits.FU object at 0x000001284A3B3488&gt;&gt;</t>
+    <t>&lt;bound method Portfolio.interp of &lt;Produits.FU object at 0x000001B0EB103048&gt;&gt;</t>
   </si>
   <si>
     <t>[[[0.5742 0.5742 0.5742 0.5742 0.6782 0.6414]
@@ -2520,7 +2520,7 @@
    0.002408290384271594 0.002408290384271594 0.0032145624959929453]]]</t>
   </si>
   <si>
-    <t>&lt;bound method Hypo.mask of &lt;Produits.FU object at 0x000001284A3B3488&gt;&gt;</t>
+    <t>&lt;bound method Hypo.mask of &lt;Produits.FU object at 0x000001B0EB103048&gt;&gt;</t>
   </si>
   <si>
     <t>[[[0. 0. 0. 0. 0. 0.]
@@ -2568,10 +2568,10 @@
   [0. 0. 0. 0. 0. 0.]]]</t>
   </si>
   <si>
-    <t>&lt;bound method Hypo.mod of &lt;Produits.FU object at 0x000001284A3B3488&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;bound method Hypo.modHead of &lt;Produits.FU object at 0x000001284A3B3488&gt;&gt;</t>
+    <t>&lt;bound method Hypo.mod of &lt;Produits.FU object at 0x000001B0EB103048&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bound method Hypo.modHead of &lt;Produits.FU object at 0x000001B0EB103048&gt;&gt;</t>
   </si>
   <si>
     <t>[8, 9]</t>
@@ -3630,7 +3630,7 @@
 [563 rows x 0 columns]</t>
   </si>
   <si>
-    <t>&lt;bound method Hypo.templateSinistrality of &lt;Produits.FU object at 0x000001284A3B3488&gt;&gt;</t>
+    <t>&lt;bound method Hypo.templateSinistrality of &lt;Produits.FU object at 0x000001B0EB103048&gt;&gt;</t>
   </si>
   <si>
     <t>[[[0.08333333 0.08333333 0.08333333 0.08333333 0.08333333 0.08333333]
@@ -4068,7 +4068,7 @@
     0.        ]]]</t>
   </si>
   <si>
-    <t>&lt;bound method FU.update of &lt;Produits.FU object at 0x000001284A3B3488&gt;&gt;</t>
+    <t>&lt;bound method FU.update of &lt;Produits.FU object at 0x000001B0EB103048&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -4621,7 +4621,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>-9.223371957320044E+18</v>
+        <v>-9.223371920644177E+18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
